--- a/BackTest/2020-01-21 BackTest BCH.xlsx
+++ b/BackTest/2020-01-21 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>876.1567085500003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>876.1567085500003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>860.2769085500003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>860.2769085500003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>818.7180894100003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>871.1800894100003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>916.4715894100003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>578.2549033600005</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>582.8820046000005</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>580.7456046000005</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>618.2576341300005</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>634.0575341300005</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>630.9399341300004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>603.1906341300005</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>548.7333341300005</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>580.2533341300004</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>580.2511341300004</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>590.8209341300004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>549.1771575600004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>263.0610575600004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>286.5361326300004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>332.7411326300004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>333.8035326300004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>387.8221326300004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>360.2657326300004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>360.2657326300004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>423.1283326300004</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>418.2597326300004</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>418.0849326300004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>396.0831326300004</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>397.6593326300003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>313.7569326300003</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>312.5569326300003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>307.2934326300003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>315.5824326300003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>315.5766416500003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>308.6360416500003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>318.6939416500003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>318.6939416500003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>298.7573416500003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>210.0110221500003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>207.2227221500004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>204.5112221500003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>139.4868221500004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>227.6812221500004</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>227.6872573100004</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>222.5171573100004</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>229.7283573100004</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>237.2096073100004</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>220.5226073100004</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>219.0053073100003</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>212.0917073100003</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-231.1534926899997</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4444,14 +4444,10 @@
         <v>-220.6211476599996</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>377400</v>
-      </c>
-      <c r="J123" t="n">
-        <v>377400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4484,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>377400</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4523,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>377400</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -6341,14 +6325,10 @@
         <v>-503.5065032899997</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>375800</v>
-      </c>
-      <c r="J180" t="n">
-        <v>375800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6378,19 +6358,11 @@
         <v>-503.5065032899997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>375900</v>
-      </c>
-      <c r="J181" t="n">
-        <v>375800</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6422,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>375800</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -8636,7 +8602,7 @@
         <v>-79.71154696999982</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8702,7 +8668,7 @@
         <v>-145.8022469699998</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8834,7 +8800,7 @@
         <v>-163.8043469699998</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9098,7 +9064,7 @@
         <v>-202.8586469699998</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9131,7 +9097,7 @@
         <v>-202.8586469699998</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9263,7 +9229,7 @@
         <v>-234.7080469699998</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9395,7 +9361,7 @@
         <v>-239.5198469699998</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9626,7 +9592,7 @@
         <v>-248.5635680199999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9659,7 +9625,7 @@
         <v>-256.5635680199999</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9725,7 +9691,7 @@
         <v>-260.6962937599998</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11144,7 +11110,7 @@
         <v>-538.5410888999999</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11342,7 +11308,7 @@
         <v>-658.4832182999999</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11375,7 +11341,7 @@
         <v>-658.5133182999998</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12431,7 +12397,7 @@
         <v>-631.6706607299998</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12464,7 +12430,7 @@
         <v>-608.4748607299998</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12497,7 +12463,7 @@
         <v>-546.5276697299998</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12596,7 +12562,7 @@
         <v>-477.8341051999998</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12629,7 +12595,7 @@
         <v>-463.0182920099998</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12827,7 +12793,7 @@
         <v>-591.2844920099997</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13190,7 +13156,7 @@
         <v>-509.6231115799998</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13289,7 +13255,7 @@
         <v>-90.97300743999983</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13322,7 +13288,7 @@
         <v>54.55469256000018</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13355,7 +13321,7 @@
         <v>157.9997925600002</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13388,7 +13354,7 @@
         <v>280.5301925600002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13421,7 +13387,7 @@
         <v>236.4852880900002</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13454,7 +13420,7 @@
         <v>179.2137880900002</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13487,7 +13453,7 @@
         <v>165.4169880900002</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13520,7 +13486,7 @@
         <v>197.8444880900002</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13553,7 +13519,7 @@
         <v>617.0508880900002</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13586,7 +13552,7 @@
         <v>696.7999880900002</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13619,7 +13585,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13652,7 +13618,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13685,7 +13651,7 @@
         <v>705.0112880900001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13751,7 +13717,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13784,7 +13750,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13817,7 +13783,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13850,7 +13816,7 @@
         <v>-116.9190119099999</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13883,7 +13849,7 @@
         <v>-103.1253119099999</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13916,7 +13882,7 @@
         <v>-129.3013119099999</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13949,7 +13915,7 @@
         <v>-129.3013119099999</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13982,7 +13948,7 @@
         <v>-148.9107119099999</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14015,7 +13981,7 @@
         <v>-136.9876119099999</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14048,7 +14014,7 @@
         <v>-140.7824119099999</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14081,7 +14047,7 @@
         <v>-187.6272119099999</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14114,7 +14080,7 @@
         <v>-197.5475119099999</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14147,7 +14113,7 @@
         <v>-278.8785704299999</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14180,7 +14146,7 @@
         <v>-391.8544704299999</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14213,7 +14179,7 @@
         <v>-360.8113704299999</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14246,7 +14212,7 @@
         <v>-341.3941704299999</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14279,7 +14245,7 @@
         <v>-321.9065704299999</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14312,7 +14278,7 @@
         <v>-315.2597704299999</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14345,7 +14311,7 @@
         <v>-352.9133704299999</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14378,7 +14344,7 @@
         <v>-664.34737043</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14411,7 +14377,7 @@
         <v>-672.1799704299999</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14444,7 +14410,7 @@
         <v>-680.8755704299999</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14477,7 +14443,7 @@
         <v>-680.8755704299999</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14510,7 +14476,7 @@
         <v>-680.8755704299999</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14642,7 +14608,7 @@
         <v>-860.8789704299999</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14675,7 +14641,7 @@
         <v>-846.2773704299999</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14708,7 +14674,7 @@
         <v>-846.2773704299999</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14741,7 +14707,7 @@
         <v>-1049.42067043</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14774,7 +14740,7 @@
         <v>-1049.42067043</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14807,7 +14773,7 @@
         <v>-1028.79497043</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14840,7 +14806,7 @@
         <v>-1028.09397043</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14906,7 +14872,7 @@
         <v>-1001.58427043</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14939,7 +14905,7 @@
         <v>-956.8972704299999</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15005,7 +14971,7 @@
         <v>-966.4188704299999</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15038,7 +15004,7 @@
         <v>-972.4475704299998</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15071,7 +15037,7 @@
         <v>-974.4137704299998</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -23585,7 +23551,7 @@
         <v>-1230.024154019999</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23717,7 +23683,7 @@
         <v>-1161.413654019999</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23750,7 +23716,7 @@
         <v>-1184.541854019999</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23783,7 +23749,7 @@
         <v>-1216.636754019999</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23816,7 +23782,7 @@
         <v>-1197.836310909999</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23849,7 +23815,7 @@
         <v>-1205.595510909999</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23882,7 +23848,7 @@
         <v>-1231.043110909999</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25961,11 +25927,17 @@
         <v>-1473.687282219998</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>379100</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25994,11 +25966,17 @@
         <v>-1460.682673269999</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>380000</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26031,7 +26009,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26064,7 +26046,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26097,7 +26083,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26130,7 +26120,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26163,7 +26157,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26196,7 +26194,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26225,11 +26227,17 @@
         <v>-1525.412560189998</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>379000</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26258,11 +26266,17 @@
         <v>-1563.548860189998</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>379200</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26291,11 +26305,17 @@
         <v>-1563.021447109998</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>378800</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26328,7 +26348,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26357,11 +26381,17 @@
         <v>-1568.186347109998</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>379000</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26394,7 +26424,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26427,7 +26461,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26456,11 +26494,17 @@
         <v>-1385.787947109998</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>378300</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26493,7 +26537,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26526,7 +26574,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26559,7 +26611,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26592,7 +26648,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26625,7 +26685,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26658,7 +26722,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26691,7 +26759,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26724,7 +26796,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26757,7 +26833,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26790,7 +26870,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26823,7 +26907,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26856,7 +26944,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26889,7 +26981,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26922,7 +27018,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26955,7 +27055,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26988,7 +27092,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27021,7 +27129,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27054,7 +27166,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27087,7 +27203,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27120,7 +27240,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27153,7 +27277,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27186,7 +27314,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27219,7 +27351,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27252,7 +27388,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27285,7 +27425,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27318,7 +27462,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27351,7 +27499,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27384,7 +27536,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27417,7 +27573,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27450,7 +27610,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27483,7 +27647,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27516,7 +27684,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27549,7 +27721,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27582,7 +27758,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27615,7 +27795,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27648,7 +27832,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27681,7 +27869,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27714,7 +27906,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27747,7 +27943,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27780,7 +27980,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27813,7 +28017,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27846,7 +28054,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27879,7 +28091,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27912,7 +28128,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27945,7 +28165,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27978,7 +28202,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28011,7 +28239,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28044,7 +28276,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28077,7 +28313,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28110,7 +28350,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28143,7 +28387,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28176,7 +28424,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28209,7 +28461,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28242,7 +28498,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28275,7 +28535,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28308,7 +28572,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28341,7 +28609,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28374,7 +28646,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28407,7 +28683,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28440,7 +28720,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28473,7 +28757,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28506,7 +28794,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28539,7 +28831,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28572,7 +28868,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28605,7 +28905,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28638,7 +28942,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28671,7 +28979,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28704,7 +29016,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28737,7 +29053,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28770,7 +29090,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28803,7 +29127,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28836,7 +29164,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28869,7 +29201,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28902,7 +29238,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28935,7 +29275,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28968,7 +29312,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28997,15 +29345,13 @@
         <v>-1372.071844669998</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="n">
-        <v>379800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L866" t="n">
@@ -29036,11 +29382,9 @@
         <v>-1371.507544669998</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
-      </c>
-      <c r="I867" t="n">
-        <v>379300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29075,11 +29419,9 @@
         <v>-1371.400644669998</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
-      </c>
-      <c r="I868" t="n">
-        <v>379600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29114,11 +29456,9 @@
         <v>-1375.436244669998</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
-      </c>
-      <c r="I869" t="n">
-        <v>379800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29153,11 +29493,9 @@
         <v>-1375.436244669998</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
-      </c>
-      <c r="I870" t="n">
-        <v>379500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29192,9 +29530,11 @@
         <v>-1380.695444669998</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>379500</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -30080,11 +30420,9 @@
         <v>-1331.531396649998</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
-      </c>
-      <c r="I895" t="n">
-        <v>379100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -32117,11 +32455,9 @@
         <v>-1776.127310729998</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
-      </c>
-      <c r="I950" t="n">
-        <v>378000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32156,11 +32492,9 @@
         <v>-1777.927310729998</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
-      </c>
-      <c r="I951" t="n">
-        <v>377600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32195,7 +32529,7 @@
         <v>-1812.109210729998</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952" t="n">
         <v>377500</v>
@@ -32234,7 +32568,7 @@
         <v>-1812.109210729998</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953" t="n">
         <v>377100</v>
@@ -32273,9 +32607,11 @@
         <v>-1812.109210729998</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>377100</v>
+      </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32310,9 +32646,11 @@
         <v>-1822.041410729998</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>377100</v>
+      </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32347,9 +32685,11 @@
         <v>-1620.434010729998</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>376600</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32643,9 +32983,11 @@
         <v>-1551.938287789998</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>375300</v>
+      </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -32976,7 +33318,7 @@
         <v>-1519.404061859998</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I973" t="n">
         <v>375900</v>
@@ -33718,9 +34060,11 @@
         <v>-1559.386708769998</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>373400</v>
+      </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -33792,9 +34136,11 @@
         <v>-1513.736708769998</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>373200</v>
+      </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -33829,9 +34175,11 @@
         <v>-1497.756208769998</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>373000</v>
+      </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -33866,9 +34214,11 @@
         <v>-1496.100708769998</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>373300</v>
+      </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -33940,9 +34290,11 @@
         <v>-1505.990608769998</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>373900</v>
+      </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -33977,7 +34329,7 @@
         <v>-1555.429508769998</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1000" t="n">
         <v>373300</v>
@@ -34016,9 +34368,11 @@
         <v>-1517.886108769998</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>372200</v>
+      </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34053,7 +34407,7 @@
         <v>-1458.958008769998</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1002" t="n">
         <v>373300</v>
@@ -34092,9 +34446,11 @@
         <v>-1385.037008769998</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>374100</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34943,9 +35299,11 @@
         <v>-1566.279272979998</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>374800</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35091,11 +35449,9 @@
         <v>-1553.692371919998</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>373400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35130,11 +35486,9 @@
         <v>-1543.846571919998</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1031" t="n">
-        <v>373300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35169,11 +35523,9 @@
         <v>-1804.201371919998</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>373500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35208,11 +35560,9 @@
         <v>-1800.381471919998</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>372000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35506,9 +35856,11 @@
         <v>-1840.042207969998</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>373100</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35580,9 +35932,11 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>372200</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35617,7 +35971,7 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1044" t="n">
         <v>372900</v>
@@ -35656,7 +36010,7 @@
         <v>-1848.796168749998</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1045" t="n">
         <v>372900</v>
@@ -35695,7 +36049,7 @@
         <v>-1828.663368749998</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1046" t="n">
         <v>374000</v>
@@ -35734,7 +36088,7 @@
         <v>-1827.663368749998</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1047" t="n">
         <v>375000</v>
@@ -35773,7 +36127,7 @@
         <v>-1724.527168749998</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1048" t="n">
         <v>375400</v>
@@ -35812,7 +36166,7 @@
         <v>-1859.382909769998</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>378100</v>
@@ -36591,7 +36945,7 @@
         <v>-561.6897880999982</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -36850,7 +37204,7 @@
         <v>-611.7849921499983</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37220,7 +37574,7 @@
         <v>-804.8115921499983</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -37294,7 +37648,7 @@
         <v>-811.6711921499983</v>
       </c>
       <c r="H1089" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37405,7 +37759,7 @@
         <v>-803.2699921499984</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -37442,7 +37796,7 @@
         <v>-802.8017921499984</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -37479,7 +37833,7 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -37516,7 +37870,7 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -37590,7 +37944,7 @@
         <v>-830.6497921499985</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -37627,7 +37981,7 @@
         <v>-836.4450921499985</v>
       </c>
       <c r="H1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -37975,6 +38329,6 @@
       <c r="M1107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BCH.xlsx
+++ b/BackTest/2020-01-21 BackTest BCH.xlsx
@@ -550,7 +550,7 @@
         <v>860.2769085500003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>818.7180894100003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>871.1800894100003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>916.4715894100003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>817.6889015900003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>894.1655727900004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>904.1599033600005</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>840.6554033600005</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>582.8820046000005</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>580.7456046000005</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>157.9997925600002</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>280.5301925600002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>236.4852880900002</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>179.2137880900002</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>165.4169880900002</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>197.8444880900002</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>617.0508880900002</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>696.7999880900002</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>705.0112880900001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>682.0686880900001</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-116.9190119099999</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-103.1253119099999</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -31999,2991 +31999,2657 @@
         <v>-1953.479413249998</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
-      </c>
-      <c r="I958" t="n">
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="n">
+        <v>1</v>
+      </c>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="n">
+        <v>374000</v>
+      </c>
+      <c r="C959" t="n">
+        <v>375800</v>
+      </c>
+      <c r="D959" t="n">
+        <v>376600</v>
+      </c>
+      <c r="E959" t="n">
+        <v>374000</v>
+      </c>
+      <c r="F959" t="n">
+        <v>148.4067</v>
+      </c>
+      <c r="G959" t="n">
+        <v>-1805.072713249998</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="n">
+        <v>1</v>
+      </c>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="n">
+        <v>375500</v>
+      </c>
+      <c r="C960" t="n">
+        <v>375300</v>
+      </c>
+      <c r="D960" t="n">
         <v>376300</v>
       </c>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
+      <c r="E960" t="n">
+        <v>375300</v>
+      </c>
+      <c r="F960" t="n">
+        <v>30.86767454</v>
+      </c>
+      <c r="G960" t="n">
+        <v>-1835.940387789998</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
+      <c r="L960" t="n">
+        <v>1</v>
+      </c>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="n">
+        <v>374600</v>
+      </c>
+      <c r="C961" t="n">
+        <v>375400</v>
+      </c>
+      <c r="D961" t="n">
+        <v>375900</v>
+      </c>
+      <c r="E961" t="n">
+        <v>374600</v>
+      </c>
+      <c r="F961" t="n">
+        <v>48.7774</v>
+      </c>
+      <c r="G961" t="n">
+        <v>-1787.162987789998</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="n">
+        <v>1</v>
+      </c>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="n">
+        <v>375300</v>
+      </c>
+      <c r="C962" t="n">
+        <v>374900</v>
+      </c>
+      <c r="D962" t="n">
+        <v>375300</v>
+      </c>
+      <c r="E962" t="n">
+        <v>374900</v>
+      </c>
+      <c r="F962" t="n">
+        <v>2.6942</v>
+      </c>
+      <c r="G962" t="n">
+        <v>-1789.857187789998</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
+      <c r="L962" t="n">
+        <v>1</v>
+      </c>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="n">
+        <v>375000</v>
+      </c>
+      <c r="C963" t="n">
+        <v>375300</v>
+      </c>
+      <c r="D963" t="n">
+        <v>375300</v>
+      </c>
+      <c r="E963" t="n">
+        <v>375000</v>
+      </c>
+      <c r="F963" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="G963" t="n">
+        <v>-1786.692187789998</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
+      <c r="L963" t="n">
+        <v>1</v>
+      </c>
+      <c r="M963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="n">
+        <v>376700</v>
+      </c>
+      <c r="C964" t="n">
+        <v>377800</v>
+      </c>
+      <c r="D964" t="n">
+        <v>378200</v>
+      </c>
+      <c r="E964" t="n">
+        <v>376700</v>
+      </c>
+      <c r="F964" t="n">
+        <v>234.7539</v>
+      </c>
+      <c r="G964" t="n">
+        <v>-1551.938287789998</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="n">
+        <v>1</v>
+      </c>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="n">
+        <v>377900</v>
+      </c>
+      <c r="C965" t="n">
+        <v>376500</v>
+      </c>
+      <c r="D965" t="n">
+        <v>377900</v>
+      </c>
+      <c r="E965" t="n">
+        <v>376500</v>
+      </c>
+      <c r="F965" t="n">
+        <v>47.7708</v>
+      </c>
+      <c r="G965" t="n">
+        <v>-1599.709087789998</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
+      <c r="L965" t="n">
+        <v>1</v>
+      </c>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="n">
+        <v>376900</v>
+      </c>
+      <c r="C966" t="n">
+        <v>376900</v>
+      </c>
+      <c r="D966" t="n">
+        <v>376900</v>
+      </c>
+      <c r="E966" t="n">
+        <v>376900</v>
+      </c>
+      <c r="F966" t="n">
+        <v>5.8088</v>
+      </c>
+      <c r="G966" t="n">
+        <v>-1593.900287789998</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="n">
+        <v>1</v>
+      </c>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="n">
+        <v>376400</v>
+      </c>
+      <c r="C967" t="n">
+        <v>376400</v>
+      </c>
+      <c r="D967" t="n">
+        <v>376400</v>
+      </c>
+      <c r="E967" t="n">
+        <v>376400</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.5518999999999999</v>
+      </c>
+      <c r="G967" t="n">
+        <v>-1594.452187789998</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="n">
+        <v>1</v>
+      </c>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="n">
+        <v>376300</v>
+      </c>
+      <c r="C968" t="n">
+        <v>375600</v>
+      </c>
+      <c r="D968" t="n">
+        <v>376400</v>
+      </c>
+      <c r="E968" t="n">
+        <v>375000</v>
+      </c>
+      <c r="F968" t="n">
+        <v>43.74967407</v>
+      </c>
+      <c r="G968" t="n">
+        <v>-1638.201861859998</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
+      <c r="L968" t="n">
+        <v>1</v>
+      </c>
+      <c r="M968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="n">
+        <v>375600</v>
+      </c>
+      <c r="C969" t="n">
+        <v>375600</v>
+      </c>
+      <c r="D969" t="n">
+        <v>375600</v>
+      </c>
+      <c r="E969" t="n">
+        <v>375600</v>
+      </c>
+      <c r="F969" t="n">
+        <v>3.3308</v>
+      </c>
+      <c r="G969" t="n">
+        <v>-1638.201861859998</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
+      <c r="L969" t="n">
+        <v>1</v>
+      </c>
+      <c r="M969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="n">
+        <v>376100</v>
+      </c>
+      <c r="C970" t="n">
+        <v>376100</v>
+      </c>
+      <c r="D970" t="n">
+        <v>376900</v>
+      </c>
+      <c r="E970" t="n">
+        <v>376100</v>
+      </c>
+      <c r="F970" t="n">
+        <v>12.0691</v>
+      </c>
+      <c r="G970" t="n">
+        <v>-1626.132761859998</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="n">
+        <v>1</v>
+      </c>
+      <c r="M970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="n">
+        <v>376300</v>
+      </c>
+      <c r="C971" t="n">
+        <v>376100</v>
+      </c>
+      <c r="D971" t="n">
+        <v>377000</v>
+      </c>
+      <c r="E971" t="n">
+        <v>376100</v>
+      </c>
+      <c r="F971" t="n">
+        <v>85.93345994000001</v>
+      </c>
+      <c r="G971" t="n">
+        <v>-1626.132761859998</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="n">
+        <v>1</v>
+      </c>
+      <c r="M971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="n">
+        <v>376100</v>
+      </c>
+      <c r="C972" t="n">
+        <v>375900</v>
+      </c>
+      <c r="D972" t="n">
+        <v>376100</v>
+      </c>
+      <c r="E972" t="n">
+        <v>375900</v>
+      </c>
+      <c r="F972" t="n">
+        <v>11.9762</v>
+      </c>
+      <c r="G972" t="n">
+        <v>-1638.108961859998</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="n">
+        <v>1</v>
+      </c>
+      <c r="M972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="n">
+        <v>376100</v>
+      </c>
+      <c r="C973" t="n">
+        <v>376000</v>
+      </c>
+      <c r="D973" t="n">
+        <v>376100</v>
+      </c>
+      <c r="E973" t="n">
+        <v>376000</v>
+      </c>
+      <c r="F973" t="n">
+        <v>118.7049</v>
+      </c>
+      <c r="G973" t="n">
+        <v>-1519.404061859998</v>
+      </c>
+      <c r="H973" t="n">
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
+      <c r="L973" t="n">
+        <v>1</v>
+      </c>
+      <c r="M973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="n">
+        <v>376500</v>
+      </c>
+      <c r="C974" t="n">
+        <v>376500</v>
+      </c>
+      <c r="D974" t="n">
+        <v>376500</v>
+      </c>
+      <c r="E974" t="n">
+        <v>376500</v>
+      </c>
+      <c r="F974" t="n">
+        <v>4.5539</v>
+      </c>
+      <c r="G974" t="n">
+        <v>-1514.850161859998</v>
+      </c>
+      <c r="H974" t="n">
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="n">
+        <v>1</v>
+      </c>
+      <c r="M974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" t="n">
+        <v>376500</v>
+      </c>
+      <c r="C975" t="n">
+        <v>376300</v>
+      </c>
+      <c r="D975" t="n">
+        <v>376500</v>
+      </c>
+      <c r="E975" t="n">
+        <v>376300</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.8098</v>
+      </c>
+      <c r="G975" t="n">
+        <v>-1515.659961859998</v>
+      </c>
+      <c r="H975" t="n">
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="n">
+        <v>1</v>
+      </c>
+      <c r="M975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="n">
+        <v>376200</v>
+      </c>
+      <c r="C976" t="n">
+        <v>377400</v>
+      </c>
+      <c r="D976" t="n">
+        <v>377400</v>
+      </c>
+      <c r="E976" t="n">
+        <v>376100</v>
+      </c>
+      <c r="F976" t="n">
+        <v>22.2481</v>
+      </c>
+      <c r="G976" t="n">
+        <v>-1493.411861859998</v>
+      </c>
+      <c r="H976" t="n">
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
+      <c r="L976" t="n">
+        <v>1</v>
+      </c>
+      <c r="M976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="n">
+        <v>376800</v>
+      </c>
+      <c r="C977" t="n">
+        <v>376600</v>
+      </c>
+      <c r="D977" t="n">
+        <v>376800</v>
+      </c>
+      <c r="E977" t="n">
+        <v>376600</v>
+      </c>
+      <c r="F977" t="n">
+        <v>11.116</v>
+      </c>
+      <c r="G977" t="n">
+        <v>-1504.527861859998</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="n">
+        <v>1</v>
+      </c>
+      <c r="M977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="n">
+        <v>376700</v>
+      </c>
+      <c r="C978" t="n">
+        <v>375900</v>
+      </c>
+      <c r="D978" t="n">
+        <v>376700</v>
+      </c>
+      <c r="E978" t="n">
+        <v>375900</v>
+      </c>
+      <c r="F978" t="n">
+        <v>8.6998</v>
+      </c>
+      <c r="G978" t="n">
+        <v>-1513.227661859998</v>
+      </c>
+      <c r="H978" t="n">
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="n">
+        <v>1</v>
+      </c>
+      <c r="M978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="n">
+        <v>375900</v>
+      </c>
+      <c r="C979" t="n">
+        <v>375600</v>
+      </c>
+      <c r="D979" t="n">
+        <v>376000</v>
+      </c>
+      <c r="E979" t="n">
+        <v>375600</v>
+      </c>
+      <c r="F979" t="n">
+        <v>13.4899</v>
+      </c>
+      <c r="G979" t="n">
+        <v>-1526.717561859998</v>
+      </c>
+      <c r="H979" t="n">
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="n">
+        <v>1</v>
+      </c>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>375700</v>
+      </c>
+      <c r="C980" t="n">
+        <v>375200</v>
+      </c>
+      <c r="D980" t="n">
+        <v>375700</v>
+      </c>
+      <c r="E980" t="n">
+        <v>375200</v>
+      </c>
+      <c r="F980" t="n">
+        <v>7.1203</v>
+      </c>
+      <c r="G980" t="n">
+        <v>-1533.837861859998</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
+        <v>375200</v>
+      </c>
+      <c r="C981" t="n">
+        <v>375000</v>
+      </c>
+      <c r="D981" t="n">
+        <v>375200</v>
+      </c>
+      <c r="E981" t="n">
+        <v>375000</v>
+      </c>
+      <c r="F981" t="n">
+        <v>2.9722</v>
+      </c>
+      <c r="G981" t="n">
+        <v>-1536.810061859998</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="n">
+        <v>1</v>
+      </c>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="n">
+        <v>375200</v>
+      </c>
+      <c r="C982" t="n">
+        <v>374200</v>
+      </c>
+      <c r="D982" t="n">
+        <v>375200</v>
+      </c>
+      <c r="E982" t="n">
+        <v>373600</v>
+      </c>
+      <c r="F982" t="n">
+        <v>143.0993</v>
+      </c>
+      <c r="G982" t="n">
+        <v>-1679.909361859998</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="n">
+        <v>1</v>
+      </c>
+      <c r="M982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="n">
+        <v>374200</v>
+      </c>
+      <c r="C983" t="n">
+        <v>375200</v>
+      </c>
+      <c r="D983" t="n">
+        <v>375200</v>
+      </c>
+      <c r="E983" t="n">
+        <v>374200</v>
+      </c>
+      <c r="F983" t="n">
+        <v>113.9697</v>
+      </c>
+      <c r="G983" t="n">
+        <v>-1565.939661859998</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="n">
+        <v>1</v>
+      </c>
+      <c r="M983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="n">
+        <v>375200</v>
+      </c>
+      <c r="C984" t="n">
+        <v>374900</v>
+      </c>
+      <c r="D984" t="n">
+        <v>375400</v>
+      </c>
+      <c r="E984" t="n">
+        <v>374700</v>
+      </c>
+      <c r="F984" t="n">
+        <v>33.9932</v>
+      </c>
+      <c r="G984" t="n">
+        <v>-1599.932861859998</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="n">
+        <v>1</v>
+      </c>
+      <c r="M984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="n">
+        <v>374900</v>
+      </c>
+      <c r="C985" t="n">
+        <v>373700</v>
+      </c>
+      <c r="D985" t="n">
+        <v>374900</v>
+      </c>
+      <c r="E985" t="n">
+        <v>373700</v>
+      </c>
+      <c r="F985" t="n">
+        <v>17.2293</v>
+      </c>
+      <c r="G985" t="n">
+        <v>-1617.162161859998</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="n">
+        <v>1</v>
+      </c>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="n">
+        <v>373700</v>
+      </c>
+      <c r="C986" t="n">
+        <v>374000</v>
+      </c>
+      <c r="D986" t="n">
+        <v>374000</v>
+      </c>
+      <c r="E986" t="n">
+        <v>373300</v>
+      </c>
+      <c r="F986" t="n">
+        <v>29.5439</v>
+      </c>
+      <c r="G986" t="n">
+        <v>-1587.618261859998</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>373700</v>
+      </c>
+      <c r="C987" t="n">
+        <v>372600</v>
+      </c>
+      <c r="D987" t="n">
+        <v>373700</v>
+      </c>
+      <c r="E987" t="n">
+        <v>372600</v>
+      </c>
+      <c r="F987" t="n">
+        <v>45.5288</v>
+      </c>
+      <c r="G987" t="n">
+        <v>-1633.147061859999</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>373000</v>
+      </c>
+      <c r="C988" t="n">
+        <v>371800</v>
+      </c>
+      <c r="D988" t="n">
+        <v>373000</v>
+      </c>
+      <c r="E988" t="n">
+        <v>370400</v>
+      </c>
+      <c r="F988" t="n">
+        <v>224.74244691</v>
+      </c>
+      <c r="G988" t="n">
+        <v>-1857.889508769998</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>371800</v>
+      </c>
+      <c r="C989" t="n">
+        <v>371800</v>
+      </c>
+      <c r="D989" t="n">
+        <v>372500</v>
+      </c>
+      <c r="E989" t="n">
+        <v>371800</v>
+      </c>
+      <c r="F989" t="n">
+        <v>49.2843</v>
+      </c>
+      <c r="G989" t="n">
+        <v>-1857.889508769998</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>371600</v>
+      </c>
+      <c r="C990" t="n">
+        <v>371600</v>
+      </c>
+      <c r="D990" t="n">
+        <v>372200</v>
+      </c>
+      <c r="E990" t="n">
+        <v>371500</v>
+      </c>
+      <c r="F990" t="n">
+        <v>48.289</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-1906.178508769998</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>371600</v>
+      </c>
+      <c r="C991" t="n">
+        <v>371800</v>
+      </c>
+      <c r="D991" t="n">
+        <v>372200</v>
+      </c>
+      <c r="E991" t="n">
+        <v>369000</v>
+      </c>
+      <c r="F991" t="n">
+        <v>299.3554</v>
+      </c>
+      <c r="G991" t="n">
+        <v>-1606.823108769998</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>371400</v>
+      </c>
+      <c r="C992" t="n">
+        <v>373400</v>
+      </c>
+      <c r="D992" t="n">
+        <v>373600</v>
+      </c>
+      <c r="E992" t="n">
+        <v>371400</v>
+      </c>
+      <c r="F992" t="n">
+        <v>57.6158</v>
+      </c>
+      <c r="G992" t="n">
+        <v>-1549.207308769998</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="n">
+        <v>1</v>
+      </c>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>372600</v>
+      </c>
+      <c r="C993" t="n">
+        <v>372200</v>
+      </c>
+      <c r="D993" t="n">
+        <v>373200</v>
+      </c>
+      <c r="E993" t="n">
+        <v>372000</v>
+      </c>
+      <c r="F993" t="n">
+        <v>10.1794</v>
+      </c>
+      <c r="G993" t="n">
+        <v>-1559.386708769998</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="n">
+        <v>1</v>
+      </c>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>373000</v>
+      </c>
+      <c r="C994" t="n">
+        <v>373200</v>
+      </c>
+      <c r="D994" t="n">
+        <v>373200</v>
+      </c>
+      <c r="E994" t="n">
+        <v>372200</v>
+      </c>
+      <c r="F994" t="n">
+        <v>67.4747</v>
+      </c>
+      <c r="G994" t="n">
+        <v>-1491.912008769998</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="n">
+        <v>1</v>
+      </c>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>372800</v>
+      </c>
+      <c r="C995" t="n">
+        <v>373000</v>
+      </c>
+      <c r="D995" t="n">
+        <v>373300</v>
+      </c>
+      <c r="E995" t="n">
+        <v>372800</v>
+      </c>
+      <c r="F995" t="n">
+        <v>21.8247</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-1513.736708769998</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>373300</v>
+      </c>
+      <c r="C996" t="n">
+        <v>373300</v>
+      </c>
+      <c r="D996" t="n">
+        <v>373300</v>
+      </c>
+      <c r="E996" t="n">
+        <v>373000</v>
+      </c>
+      <c r="F996" t="n">
+        <v>15.9805</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-1497.756208769998</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>373400</v>
+      </c>
+      <c r="C997" t="n">
+        <v>373900</v>
+      </c>
+      <c r="D997" t="n">
+        <v>374200</v>
+      </c>
+      <c r="E997" t="n">
+        <v>373400</v>
+      </c>
+      <c r="F997" t="n">
+        <v>1.6555</v>
+      </c>
+      <c r="G997" t="n">
+        <v>-1496.100708769998</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>373900</v>
+      </c>
+      <c r="C998" t="n">
+        <v>373900</v>
+      </c>
+      <c r="D998" t="n">
+        <v>374400</v>
+      </c>
+      <c r="E998" t="n">
+        <v>373500</v>
+      </c>
+      <c r="F998" t="n">
+        <v>22.9167</v>
+      </c>
+      <c r="G998" t="n">
+        <v>-1496.100708769998</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>373600</v>
+      </c>
+      <c r="C999" t="n">
+        <v>373300</v>
+      </c>
+      <c r="D999" t="n">
+        <v>373600</v>
+      </c>
+      <c r="E999" t="n">
+        <v>373300</v>
+      </c>
+      <c r="F999" t="n">
+        <v>9.889900000000001</v>
+      </c>
+      <c r="G999" t="n">
+        <v>-1505.990608769998</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>372800</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>372200</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>372800</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>372200</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>49.4389</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>-1555.429508769998</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>373200</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>373300</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>373600</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>372900</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>37.5434</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>-1517.886108769998</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>373300</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>374100</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>374200</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>373300</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>58.9281</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>-1458.958008769998</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>374500</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>376100</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>376400</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>374500</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>73.92100000000001</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>-1385.037008769998</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>376100</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>376500</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>377400</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>375700</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>70.96080000000001</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>-1314.076208769998</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>376400</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>376000</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>377000</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>376000</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>109.5115</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>-1423.587708769998</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>376500</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>375400</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>376500</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>375400</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>60.561</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>-1484.148708769998</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>374800</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>374800</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>374800</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>374800</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-1487.458708769998</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>375700</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>375700</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>375700</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>375700</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>-1487.449908769998</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>375900</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>375000</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>376000</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>374600</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>89.1815</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-1576.631408769998</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>375700</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>376300</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>376300</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>375700</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>3.3026</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-1573.328808769998</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>375700</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>375500</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>375700</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>375500</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>8.130800000000001</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-1581.459608769998</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>375800</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>375800</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>375800</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>374900</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>106.8704</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-1474.589208769998</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>375800</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>375600</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>375800</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>375600</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>11.0863</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>-1485.675508769998</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>375200</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>375600</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>375600</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>375200</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>13.5001</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>-1485.675508769998</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>375500</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>375400</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>375500</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>375400</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.0848</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>-1485.760308769998</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>374900</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>374400</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>374900</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>374400</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>4.5544</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>-1490.314708769998</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>374300</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>374900</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>375000</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>374200</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>24.00430664</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>-1466.310402129998</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>374700</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>375000</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>375000</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>374700</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>-1460.310402129998</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>375700</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>375700</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>375700</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>375700</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>-1460.291302129998</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>374800</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>374100</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>374800</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>374100</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>34.4716</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>-1494.762902129998</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>374100</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>373200</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>374100</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>373200</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>63.3427</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>-1558.105602129998</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>373200</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>372900</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>373200</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>372900</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>28.8409</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>-1586.946502129998</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>372700</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>372700</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>372700</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>372700</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>4.1884</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>-1591.134902129998</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>372600</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>373700</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>374100</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>372400</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>37.61071123</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>-1553.524190899998</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>373800</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>374800</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>374800</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>373800</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>1.09961792</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>-1552.424572979998</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>374500</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>373600</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>374500</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>373600</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>13.8547</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>-1566.279272979998</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>373200</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>373500</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>373500</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>373000</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>11.5947</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>-1577.873972979998</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>373000</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>374000</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>374000</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>373000</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>36.08600106</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>-1541.787971919998</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>373400</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>373400</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>373400</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>373400</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>-1544.587971919998</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>373200</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>373300</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>373300</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>373200</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>9.1044</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>-1553.692371919998</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>373300</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>373500</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>373500</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>373300</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>9.845800000000001</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>-1543.846571919998</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>373900</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>372000</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>374000</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>372000</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>260.3548</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>-1804.201371919998</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>372500</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>372900</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>372900</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>372500</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>3.8199</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>-1800.381471919998</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>372400</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>371800</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>373000</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>371800</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>9.482699999999999</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>-1809.864171919998</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>372200</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>372700</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>372900</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>372100</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>33.1076</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>-1776.756571919998</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>372800</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>372900</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>373000</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>372400</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>5.98036395</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>-1770.776207969998</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>372000</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>372100</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>372100</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>372000</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>7.0198</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>-1777.796007969998</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>372100</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>372000</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>372100</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>372000</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>69.3081</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>-1847.104107969998</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>372100</v>
+      </c>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L958" t="n">
-        <v>1</v>
-      </c>
-      <c r="M958" t="inlineStr"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="B959" t="n">
-        <v>374000</v>
-      </c>
-      <c r="C959" t="n">
-        <v>375800</v>
-      </c>
-      <c r="D959" t="n">
-        <v>376600</v>
-      </c>
-      <c r="E959" t="n">
-        <v>374000</v>
-      </c>
-      <c r="F959" t="n">
-        <v>148.4067</v>
-      </c>
-      <c r="G959" t="n">
-        <v>-1805.072713249998</v>
-      </c>
-      <c r="H959" t="n">
-        <v>1</v>
-      </c>
-      <c r="I959" t="n">
-        <v>374000</v>
-      </c>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L959" t="n">
-        <v>1</v>
-      </c>
-      <c r="M959" t="inlineStr"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-      <c r="B960" t="n">
-        <v>375500</v>
-      </c>
-      <c r="C960" t="n">
-        <v>375300</v>
-      </c>
-      <c r="D960" t="n">
-        <v>376300</v>
-      </c>
-      <c r="E960" t="n">
-        <v>375300</v>
-      </c>
-      <c r="F960" t="n">
-        <v>30.86767454</v>
-      </c>
-      <c r="G960" t="n">
-        <v>-1835.940387789998</v>
-      </c>
-      <c r="H960" t="n">
-        <v>1</v>
-      </c>
-      <c r="I960" t="n">
-        <v>375800</v>
-      </c>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L960" t="n">
-        <v>1</v>
-      </c>
-      <c r="M960" t="inlineStr"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-      <c r="B961" t="n">
-        <v>374600</v>
-      </c>
-      <c r="C961" t="n">
-        <v>375400</v>
-      </c>
-      <c r="D961" t="n">
-        <v>375900</v>
-      </c>
-      <c r="E961" t="n">
-        <v>374600</v>
-      </c>
-      <c r="F961" t="n">
-        <v>48.7774</v>
-      </c>
-      <c r="G961" t="n">
-        <v>-1787.162987789998</v>
-      </c>
-      <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>375300</v>
-      </c>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L961" t="n">
-        <v>1</v>
-      </c>
-      <c r="M961" t="inlineStr"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-      <c r="B962" t="n">
-        <v>375300</v>
-      </c>
-      <c r="C962" t="n">
-        <v>374900</v>
-      </c>
-      <c r="D962" t="n">
-        <v>375300</v>
-      </c>
-      <c r="E962" t="n">
-        <v>374900</v>
-      </c>
-      <c r="F962" t="n">
-        <v>2.6942</v>
-      </c>
-      <c r="G962" t="n">
-        <v>-1789.857187789998</v>
-      </c>
-      <c r="H962" t="n">
-        <v>1</v>
-      </c>
-      <c r="I962" t="n">
-        <v>375400</v>
-      </c>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L962" t="n">
-        <v>1</v>
-      </c>
-      <c r="M962" t="inlineStr"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-      <c r="B963" t="n">
-        <v>375000</v>
-      </c>
-      <c r="C963" t="n">
-        <v>375300</v>
-      </c>
-      <c r="D963" t="n">
-        <v>375300</v>
-      </c>
-      <c r="E963" t="n">
-        <v>375000</v>
-      </c>
-      <c r="F963" t="n">
-        <v>3.165</v>
-      </c>
-      <c r="G963" t="n">
-        <v>-1786.692187789998</v>
-      </c>
-      <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>374900</v>
-      </c>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L963" t="n">
-        <v>1</v>
-      </c>
-      <c r="M963" t="inlineStr"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-      <c r="B964" t="n">
-        <v>376700</v>
-      </c>
-      <c r="C964" t="n">
-        <v>377800</v>
-      </c>
-      <c r="D964" t="n">
-        <v>378200</v>
-      </c>
-      <c r="E964" t="n">
-        <v>376700</v>
-      </c>
-      <c r="F964" t="n">
-        <v>234.7539</v>
-      </c>
-      <c r="G964" t="n">
-        <v>-1551.938287789998</v>
-      </c>
-      <c r="H964" t="n">
-        <v>1</v>
-      </c>
-      <c r="I964" t="n">
-        <v>375300</v>
-      </c>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L964" t="n">
-        <v>1</v>
-      </c>
-      <c r="M964" t="inlineStr"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-      <c r="B965" t="n">
-        <v>377900</v>
-      </c>
-      <c r="C965" t="n">
-        <v>376500</v>
-      </c>
-      <c r="D965" t="n">
-        <v>377900</v>
-      </c>
-      <c r="E965" t="n">
-        <v>376500</v>
-      </c>
-      <c r="F965" t="n">
-        <v>47.7708</v>
-      </c>
-      <c r="G965" t="n">
-        <v>-1599.709087789998</v>
-      </c>
-      <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L965" t="n">
-        <v>1</v>
-      </c>
-      <c r="M965" t="inlineStr"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-      <c r="B966" t="n">
-        <v>376900</v>
-      </c>
-      <c r="C966" t="n">
-        <v>376900</v>
-      </c>
-      <c r="D966" t="n">
-        <v>376900</v>
-      </c>
-      <c r="E966" t="n">
-        <v>376900</v>
-      </c>
-      <c r="F966" t="n">
-        <v>5.8088</v>
-      </c>
-      <c r="G966" t="n">
-        <v>-1593.900287789998</v>
-      </c>
-      <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L966" t="n">
-        <v>1</v>
-      </c>
-      <c r="M966" t="inlineStr"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="B967" t="n">
-        <v>376400</v>
-      </c>
-      <c r="C967" t="n">
-        <v>376400</v>
-      </c>
-      <c r="D967" t="n">
-        <v>376400</v>
-      </c>
-      <c r="E967" t="n">
-        <v>376400</v>
-      </c>
-      <c r="F967" t="n">
-        <v>0.5518999999999999</v>
-      </c>
-      <c r="G967" t="n">
-        <v>-1594.452187789998</v>
-      </c>
-      <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L967" t="n">
-        <v>1</v>
-      </c>
-      <c r="M967" t="inlineStr"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-      <c r="B968" t="n">
-        <v>376300</v>
-      </c>
-      <c r="C968" t="n">
-        <v>375600</v>
-      </c>
-      <c r="D968" t="n">
-        <v>376400</v>
-      </c>
-      <c r="E968" t="n">
-        <v>375000</v>
-      </c>
-      <c r="F968" t="n">
-        <v>43.74967407</v>
-      </c>
-      <c r="G968" t="n">
-        <v>-1638.201861859998</v>
-      </c>
-      <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L968" t="n">
-        <v>1</v>
-      </c>
-      <c r="M968" t="inlineStr"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>967</v>
-      </c>
-      <c r="B969" t="n">
-        <v>375600</v>
-      </c>
-      <c r="C969" t="n">
-        <v>375600</v>
-      </c>
-      <c r="D969" t="n">
-        <v>375600</v>
-      </c>
-      <c r="E969" t="n">
-        <v>375600</v>
-      </c>
-      <c r="F969" t="n">
-        <v>3.3308</v>
-      </c>
-      <c r="G969" t="n">
-        <v>-1638.201861859998</v>
-      </c>
-      <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L969" t="n">
-        <v>1</v>
-      </c>
-      <c r="M969" t="inlineStr"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>968</v>
-      </c>
-      <c r="B970" t="n">
-        <v>376100</v>
-      </c>
-      <c r="C970" t="n">
-        <v>376100</v>
-      </c>
-      <c r="D970" t="n">
-        <v>376900</v>
-      </c>
-      <c r="E970" t="n">
-        <v>376100</v>
-      </c>
-      <c r="F970" t="n">
-        <v>12.0691</v>
-      </c>
-      <c r="G970" t="n">
-        <v>-1626.132761859998</v>
-      </c>
-      <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L970" t="n">
-        <v>1</v>
-      </c>
-      <c r="M970" t="inlineStr"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>969</v>
-      </c>
-      <c r="B971" t="n">
-        <v>376300</v>
-      </c>
-      <c r="C971" t="n">
-        <v>376100</v>
-      </c>
-      <c r="D971" t="n">
-        <v>377000</v>
-      </c>
-      <c r="E971" t="n">
-        <v>376100</v>
-      </c>
-      <c r="F971" t="n">
-        <v>85.93345994000001</v>
-      </c>
-      <c r="G971" t="n">
-        <v>-1626.132761859998</v>
-      </c>
-      <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L971" t="n">
-        <v>1</v>
-      </c>
-      <c r="M971" t="inlineStr"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>970</v>
-      </c>
-      <c r="B972" t="n">
-        <v>376100</v>
-      </c>
-      <c r="C972" t="n">
-        <v>375900</v>
-      </c>
-      <c r="D972" t="n">
-        <v>376100</v>
-      </c>
-      <c r="E972" t="n">
-        <v>375900</v>
-      </c>
-      <c r="F972" t="n">
-        <v>11.9762</v>
-      </c>
-      <c r="G972" t="n">
-        <v>-1638.108961859998</v>
-      </c>
-      <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L972" t="n">
-        <v>1</v>
-      </c>
-      <c r="M972" t="inlineStr"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>971</v>
-      </c>
-      <c r="B973" t="n">
-        <v>376100</v>
-      </c>
-      <c r="C973" t="n">
-        <v>376000</v>
-      </c>
-      <c r="D973" t="n">
-        <v>376100</v>
-      </c>
-      <c r="E973" t="n">
-        <v>376000</v>
-      </c>
-      <c r="F973" t="n">
-        <v>118.7049</v>
-      </c>
-      <c r="G973" t="n">
-        <v>-1519.404061859998</v>
-      </c>
-      <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L973" t="n">
-        <v>1</v>
-      </c>
-      <c r="M973" t="inlineStr"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>972</v>
-      </c>
-      <c r="B974" t="n">
-        <v>376500</v>
-      </c>
-      <c r="C974" t="n">
-        <v>376500</v>
-      </c>
-      <c r="D974" t="n">
-        <v>376500</v>
-      </c>
-      <c r="E974" t="n">
-        <v>376500</v>
-      </c>
-      <c r="F974" t="n">
-        <v>4.5539</v>
-      </c>
-      <c r="G974" t="n">
-        <v>-1514.850161859998</v>
-      </c>
-      <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L974" t="n">
-        <v>1</v>
-      </c>
-      <c r="M974" t="inlineStr"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="1" t="n">
-        <v>973</v>
-      </c>
-      <c r="B975" t="n">
-        <v>376500</v>
-      </c>
-      <c r="C975" t="n">
-        <v>376300</v>
-      </c>
-      <c r="D975" t="n">
-        <v>376500</v>
-      </c>
-      <c r="E975" t="n">
-        <v>376300</v>
-      </c>
-      <c r="F975" t="n">
-        <v>0.8098</v>
-      </c>
-      <c r="G975" t="n">
-        <v>-1515.659961859998</v>
-      </c>
-      <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L975" t="n">
-        <v>1</v>
-      </c>
-      <c r="M975" t="inlineStr"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>974</v>
-      </c>
-      <c r="B976" t="n">
-        <v>376200</v>
-      </c>
-      <c r="C976" t="n">
-        <v>377400</v>
-      </c>
-      <c r="D976" t="n">
-        <v>377400</v>
-      </c>
-      <c r="E976" t="n">
-        <v>376100</v>
-      </c>
-      <c r="F976" t="n">
-        <v>22.2481</v>
-      </c>
-      <c r="G976" t="n">
-        <v>-1493.411861859998</v>
-      </c>
-      <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L976" t="n">
-        <v>1</v>
-      </c>
-      <c r="M976" t="inlineStr"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>975</v>
-      </c>
-      <c r="B977" t="n">
-        <v>376800</v>
-      </c>
-      <c r="C977" t="n">
-        <v>376600</v>
-      </c>
-      <c r="D977" t="n">
-        <v>376800</v>
-      </c>
-      <c r="E977" t="n">
-        <v>376600</v>
-      </c>
-      <c r="F977" t="n">
-        <v>11.116</v>
-      </c>
-      <c r="G977" t="n">
-        <v>-1504.527861859998</v>
-      </c>
-      <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L977" t="n">
-        <v>1</v>
-      </c>
-      <c r="M977" t="inlineStr"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>976</v>
-      </c>
-      <c r="B978" t="n">
-        <v>376700</v>
-      </c>
-      <c r="C978" t="n">
-        <v>375900</v>
-      </c>
-      <c r="D978" t="n">
-        <v>376700</v>
-      </c>
-      <c r="E978" t="n">
-        <v>375900</v>
-      </c>
-      <c r="F978" t="n">
-        <v>8.6998</v>
-      </c>
-      <c r="G978" t="n">
-        <v>-1513.227661859998</v>
-      </c>
-      <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L978" t="n">
-        <v>1</v>
-      </c>
-      <c r="M978" t="inlineStr"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>977</v>
-      </c>
-      <c r="B979" t="n">
-        <v>375900</v>
-      </c>
-      <c r="C979" t="n">
-        <v>375600</v>
-      </c>
-      <c r="D979" t="n">
-        <v>376000</v>
-      </c>
-      <c r="E979" t="n">
-        <v>375600</v>
-      </c>
-      <c r="F979" t="n">
-        <v>13.4899</v>
-      </c>
-      <c r="G979" t="n">
-        <v>-1526.717561859998</v>
-      </c>
-      <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L979" t="n">
-        <v>1</v>
-      </c>
-      <c r="M979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>375700</v>
-      </c>
-      <c r="C980" t="n">
-        <v>375200</v>
-      </c>
-      <c r="D980" t="n">
-        <v>375700</v>
-      </c>
-      <c r="E980" t="n">
-        <v>375200</v>
-      </c>
-      <c r="F980" t="n">
-        <v>7.1203</v>
-      </c>
-      <c r="G980" t="n">
-        <v>-1533.837861859998</v>
-      </c>
-      <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L980" t="n">
-        <v>1</v>
-      </c>
-      <c r="M980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>375200</v>
-      </c>
-      <c r="C981" t="n">
-        <v>375000</v>
-      </c>
-      <c r="D981" t="n">
-        <v>375200</v>
-      </c>
-      <c r="E981" t="n">
-        <v>375000</v>
-      </c>
-      <c r="F981" t="n">
-        <v>2.9722</v>
-      </c>
-      <c r="G981" t="n">
-        <v>-1536.810061859998</v>
-      </c>
-      <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L981" t="n">
-        <v>1</v>
-      </c>
-      <c r="M981" t="inlineStr"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>375200</v>
-      </c>
-      <c r="C982" t="n">
-        <v>374200</v>
-      </c>
-      <c r="D982" t="n">
-        <v>375200</v>
-      </c>
-      <c r="E982" t="n">
-        <v>373600</v>
-      </c>
-      <c r="F982" t="n">
-        <v>143.0993</v>
-      </c>
-      <c r="G982" t="n">
-        <v>-1679.909361859998</v>
-      </c>
-      <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L982" t="n">
-        <v>1</v>
-      </c>
-      <c r="M982" t="inlineStr"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>374200</v>
-      </c>
-      <c r="C983" t="n">
-        <v>375200</v>
-      </c>
-      <c r="D983" t="n">
-        <v>375200</v>
-      </c>
-      <c r="E983" t="n">
-        <v>374200</v>
-      </c>
-      <c r="F983" t="n">
-        <v>113.9697</v>
-      </c>
-      <c r="G983" t="n">
-        <v>-1565.939661859998</v>
-      </c>
-      <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L983" t="n">
-        <v>1</v>
-      </c>
-      <c r="M983" t="inlineStr"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>375200</v>
-      </c>
-      <c r="C984" t="n">
-        <v>374900</v>
-      </c>
-      <c r="D984" t="n">
-        <v>375400</v>
-      </c>
-      <c r="E984" t="n">
-        <v>374700</v>
-      </c>
-      <c r="F984" t="n">
-        <v>33.9932</v>
-      </c>
-      <c r="G984" t="n">
-        <v>-1599.932861859998</v>
-      </c>
-      <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L984" t="n">
-        <v>1</v>
-      </c>
-      <c r="M984" t="inlineStr"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>374900</v>
-      </c>
-      <c r="C985" t="n">
-        <v>373700</v>
-      </c>
-      <c r="D985" t="n">
-        <v>374900</v>
-      </c>
-      <c r="E985" t="n">
-        <v>373700</v>
-      </c>
-      <c r="F985" t="n">
-        <v>17.2293</v>
-      </c>
-      <c r="G985" t="n">
-        <v>-1617.162161859998</v>
-      </c>
-      <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L985" t="n">
-        <v>1</v>
-      </c>
-      <c r="M985" t="inlineStr"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>373700</v>
-      </c>
-      <c r="C986" t="n">
-        <v>374000</v>
-      </c>
-      <c r="D986" t="n">
-        <v>374000</v>
-      </c>
-      <c r="E986" t="n">
-        <v>373300</v>
-      </c>
-      <c r="F986" t="n">
-        <v>29.5439</v>
-      </c>
-      <c r="G986" t="n">
-        <v>-1587.618261859998</v>
-      </c>
-      <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L986" t="n">
-        <v>1</v>
-      </c>
-      <c r="M986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>373700</v>
-      </c>
-      <c r="C987" t="n">
-        <v>372600</v>
-      </c>
-      <c r="D987" t="n">
-        <v>373700</v>
-      </c>
-      <c r="E987" t="n">
-        <v>372600</v>
-      </c>
-      <c r="F987" t="n">
-        <v>45.5288</v>
-      </c>
-      <c r="G987" t="n">
-        <v>-1633.147061859999</v>
-      </c>
-      <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
-      <c r="M987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>373000</v>
-      </c>
-      <c r="C988" t="n">
-        <v>371800</v>
-      </c>
-      <c r="D988" t="n">
-        <v>373000</v>
-      </c>
-      <c r="E988" t="n">
-        <v>370400</v>
-      </c>
-      <c r="F988" t="n">
-        <v>224.74244691</v>
-      </c>
-      <c r="G988" t="n">
-        <v>-1857.889508769998</v>
-      </c>
-      <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L988" t="n">
-        <v>1</v>
-      </c>
-      <c r="M988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>371800</v>
-      </c>
-      <c r="C989" t="n">
-        <v>371800</v>
-      </c>
-      <c r="D989" t="n">
-        <v>372500</v>
-      </c>
-      <c r="E989" t="n">
-        <v>371800</v>
-      </c>
-      <c r="F989" t="n">
-        <v>49.2843</v>
-      </c>
-      <c r="G989" t="n">
-        <v>-1857.889508769998</v>
-      </c>
-      <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>371600</v>
-      </c>
-      <c r="C990" t="n">
-        <v>371600</v>
-      </c>
-      <c r="D990" t="n">
-        <v>372200</v>
-      </c>
-      <c r="E990" t="n">
-        <v>371500</v>
-      </c>
-      <c r="F990" t="n">
-        <v>48.289</v>
-      </c>
-      <c r="G990" t="n">
-        <v>-1906.178508769998</v>
-      </c>
-      <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>371600</v>
-      </c>
-      <c r="C991" t="n">
-        <v>371800</v>
-      </c>
-      <c r="D991" t="n">
-        <v>372200</v>
-      </c>
-      <c r="E991" t="n">
-        <v>369000</v>
-      </c>
-      <c r="F991" t="n">
-        <v>299.3554</v>
-      </c>
-      <c r="G991" t="n">
-        <v>-1606.823108769998</v>
-      </c>
-      <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>371600</v>
-      </c>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>371400</v>
-      </c>
-      <c r="C992" t="n">
-        <v>373400</v>
-      </c>
-      <c r="D992" t="n">
-        <v>373600</v>
-      </c>
-      <c r="E992" t="n">
-        <v>371400</v>
-      </c>
-      <c r="F992" t="n">
-        <v>57.6158</v>
-      </c>
-      <c r="G992" t="n">
-        <v>-1549.207308769998</v>
-      </c>
-      <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L992" t="n">
-        <v>1</v>
-      </c>
-      <c r="M992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>372600</v>
-      </c>
-      <c r="C993" t="n">
-        <v>372200</v>
-      </c>
-      <c r="D993" t="n">
-        <v>373200</v>
-      </c>
-      <c r="E993" t="n">
-        <v>372000</v>
-      </c>
-      <c r="F993" t="n">
-        <v>10.1794</v>
-      </c>
-      <c r="G993" t="n">
-        <v>-1559.386708769998</v>
-      </c>
-      <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L993" t="n">
-        <v>1</v>
-      </c>
-      <c r="M993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>373000</v>
-      </c>
-      <c r="C994" t="n">
-        <v>373200</v>
-      </c>
-      <c r="D994" t="n">
-        <v>373200</v>
-      </c>
-      <c r="E994" t="n">
-        <v>372200</v>
-      </c>
-      <c r="F994" t="n">
-        <v>67.4747</v>
-      </c>
-      <c r="G994" t="n">
-        <v>-1491.912008769998</v>
-      </c>
-      <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L994" t="n">
-        <v>1</v>
-      </c>
-      <c r="M994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>372800</v>
-      </c>
-      <c r="C995" t="n">
-        <v>373000</v>
-      </c>
-      <c r="D995" t="n">
-        <v>373300</v>
-      </c>
-      <c r="E995" t="n">
-        <v>372800</v>
-      </c>
-      <c r="F995" t="n">
-        <v>21.8247</v>
-      </c>
-      <c r="G995" t="n">
-        <v>-1513.736708769998</v>
-      </c>
-      <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>373300</v>
-      </c>
-      <c r="C996" t="n">
-        <v>373300</v>
-      </c>
-      <c r="D996" t="n">
-        <v>373300</v>
-      </c>
-      <c r="E996" t="n">
-        <v>373000</v>
-      </c>
-      <c r="F996" t="n">
-        <v>15.9805</v>
-      </c>
-      <c r="G996" t="n">
-        <v>-1497.756208769998</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>373400</v>
-      </c>
-      <c r="C997" t="n">
-        <v>373900</v>
-      </c>
-      <c r="D997" t="n">
-        <v>374200</v>
-      </c>
-      <c r="E997" t="n">
-        <v>373400</v>
-      </c>
-      <c r="F997" t="n">
-        <v>1.6555</v>
-      </c>
-      <c r="G997" t="n">
-        <v>-1496.100708769998</v>
-      </c>
-      <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>373900</v>
-      </c>
-      <c r="C998" t="n">
-        <v>373900</v>
-      </c>
-      <c r="D998" t="n">
-        <v>374400</v>
-      </c>
-      <c r="E998" t="n">
-        <v>373500</v>
-      </c>
-      <c r="F998" t="n">
-        <v>22.9167</v>
-      </c>
-      <c r="G998" t="n">
-        <v>-1496.100708769998</v>
-      </c>
-      <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>1</v>
-      </c>
-      <c r="M998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>373600</v>
-      </c>
-      <c r="C999" t="n">
-        <v>373300</v>
-      </c>
-      <c r="D999" t="n">
-        <v>373600</v>
-      </c>
-      <c r="E999" t="n">
-        <v>373300</v>
-      </c>
-      <c r="F999" t="n">
-        <v>9.889900000000001</v>
-      </c>
-      <c r="G999" t="n">
-        <v>-1505.990608769998</v>
-      </c>
-      <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>1</v>
-      </c>
-      <c r="M999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>372800</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>372200</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>372800</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>372200</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>49.4389</v>
-      </c>
-      <c r="G1000" t="n">
-        <v>-1555.429508769998</v>
-      </c>
-      <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>373200</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>373300</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>373600</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>372900</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>37.5434</v>
-      </c>
-      <c r="G1001" t="n">
-        <v>-1517.886108769998</v>
-      </c>
-      <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>373300</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>374100</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>374200</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>373300</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>58.9281</v>
-      </c>
-      <c r="G1002" t="n">
-        <v>-1458.958008769998</v>
-      </c>
-      <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1002" t="inlineStr"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>374500</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>376100</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>376400</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>374500</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>73.92100000000001</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>-1385.037008769998</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>376100</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>376500</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>377400</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>375700</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>70.96080000000001</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>-1314.076208769998</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>376400</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>376000</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>377000</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>376000</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>109.5115</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>-1423.587708769998</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>376500</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>375400</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>376500</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>375400</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>60.561</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>-1484.148708769998</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>374800</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>374800</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>374800</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>374800</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>-1487.458708769998</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>375700</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>375700</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>375700</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>375700</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>-1487.449908769998</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>375900</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>375000</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>376000</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>374600</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>89.1815</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-1576.631408769998</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>375700</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>376300</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>376300</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>375700</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>3.3026</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-1573.328808769998</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>375700</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>375500</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>375700</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>375500</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>8.130800000000001</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-1581.459608769998</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>375800</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>375800</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>375800</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>374900</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>106.8704</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>-1474.589208769998</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>375800</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>375600</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>375800</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>375600</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>11.0863</v>
-      </c>
-      <c r="G1013" t="n">
-        <v>-1485.675508769998</v>
-      </c>
-      <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>375200</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>375600</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>375600</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>375200</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>13.5001</v>
-      </c>
-      <c r="G1014" t="n">
-        <v>-1485.675508769998</v>
-      </c>
-      <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>375500</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>375400</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>375500</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>375400</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>0.0848</v>
-      </c>
-      <c r="G1015" t="n">
-        <v>-1485.760308769998</v>
-      </c>
-      <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>374900</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>374400</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>374900</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>374400</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>4.5544</v>
-      </c>
-      <c r="G1016" t="n">
-        <v>-1490.314708769998</v>
-      </c>
-      <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>374300</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>374900</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>375000</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>374200</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>24.00430664</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>-1466.310402129998</v>
-      </c>
-      <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>374700</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>375000</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>375000</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>374700</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>6</v>
-      </c>
-      <c r="G1018" t="n">
-        <v>-1460.310402129998</v>
-      </c>
-      <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>375700</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>375700</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>375700</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>375700</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>0.0191</v>
-      </c>
-      <c r="G1019" t="n">
-        <v>-1460.291302129998</v>
-      </c>
-      <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>374800</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>374100</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>374800</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>374100</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>34.4716</v>
-      </c>
-      <c r="G1020" t="n">
-        <v>-1494.762902129998</v>
-      </c>
-      <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>374100</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>373200</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>374100</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>373200</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>63.3427</v>
-      </c>
-      <c r="G1021" t="n">
-        <v>-1558.105602129998</v>
-      </c>
-      <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>373200</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>372900</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>373200</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>372900</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>28.8409</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>-1586.946502129998</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1022" t="inlineStr"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>372700</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>372700</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>372700</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>372700</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>4.1884</v>
-      </c>
-      <c r="G1023" t="n">
-        <v>-1591.134902129998</v>
-      </c>
-      <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1023" t="inlineStr"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>372600</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>373700</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>374100</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>372400</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>37.61071123</v>
-      </c>
-      <c r="G1024" t="n">
-        <v>-1553.524190899998</v>
-      </c>
-      <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>373800</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>374800</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>374800</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>373800</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>1.09961792</v>
-      </c>
-      <c r="G1025" t="n">
-        <v>-1552.424572979998</v>
-      </c>
-      <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1025" t="inlineStr"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>374500</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>373600</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>374500</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>373600</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>13.8547</v>
-      </c>
-      <c r="G1026" t="n">
-        <v>-1566.279272979998</v>
-      </c>
-      <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1026" t="inlineStr"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>373200</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>373500</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>373500</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>373000</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>11.5947</v>
-      </c>
-      <c r="G1027" t="n">
-        <v>-1577.873972979998</v>
-      </c>
-      <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1027" t="inlineStr"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>373000</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>374000</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>374000</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>373000</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>36.08600106</v>
-      </c>
-      <c r="G1028" t="n">
-        <v>-1541.787971919998</v>
-      </c>
-      <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1028" t="inlineStr"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>373400</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>373400</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>373400</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>373400</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G1029" t="n">
-        <v>-1544.587971919998</v>
-      </c>
-      <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1029" t="inlineStr"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>373200</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>373300</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>373300</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>373200</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>9.1044</v>
-      </c>
-      <c r="G1030" t="n">
-        <v>-1553.692371919998</v>
-      </c>
-      <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>373300</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>373500</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>373500</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>373300</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>9.845800000000001</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>-1543.846571919998</v>
-      </c>
-      <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1031" t="inlineStr"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>373900</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>372000</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>374000</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>372000</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>260.3548</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>-1804.201371919998</v>
-      </c>
-      <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>372500</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>372900</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>372900</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>372500</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>3.8199</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>-1800.381471919998</v>
-      </c>
-      <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>372400</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>371800</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>373000</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>371800</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>9.482699999999999</v>
-      </c>
-      <c r="G1034" t="n">
-        <v>-1809.864171919998</v>
-      </c>
-      <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1034" t="inlineStr"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>372200</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>372700</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>372900</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>372100</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>33.1076</v>
-      </c>
-      <c r="G1035" t="n">
-        <v>-1776.756571919998</v>
-      </c>
-      <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1035" t="inlineStr"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>372800</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>372900</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>373000</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>372400</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>5.98036395</v>
-      </c>
-      <c r="G1036" t="n">
-        <v>-1770.776207969998</v>
-      </c>
-      <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1036" t="inlineStr"/>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>372000</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>372100</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>372100</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>372000</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>7.0198</v>
-      </c>
-      <c r="G1037" t="n">
-        <v>-1777.796007969998</v>
-      </c>
-      <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>372100</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>372000</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>372100</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>372000</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>69.3081</v>
-      </c>
-      <c r="G1038" t="n">
-        <v>-1847.104107969998</v>
-      </c>
-      <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35012,9 +34678,11 @@
         <v>-1814.876507969998</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>372000</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35049,9 +34717,11 @@
         <v>-1813.923507969998</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>373000</v>
+      </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35086,9 +34756,11 @@
         <v>-1840.042207969998</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>373100</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35123,9 +34795,11 @@
         <v>-1866.502507969998</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>372900</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35160,9 +34834,11 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>372200</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35197,9 +34873,11 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>372900</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35234,9 +34912,11 @@
         <v>-1848.796168749998</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>372900</v>
+      </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -35271,9 +34951,11 @@
         <v>-1828.663368749998</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>374000</v>
+      </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -35308,9 +34990,11 @@
         <v>-1827.663368749998</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>375000</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35345,9 +35029,11 @@
         <v>-1724.527168749998</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>375400</v>
+      </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -36899,16 +36585,18 @@
         <v>-812.0357921499983</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1090" t="inlineStr"/>
+      <c r="L1090" t="n">
+        <v>1</v>
+      </c>
       <c r="M1090" t="inlineStr"/>
     </row>
     <row r="1091">
@@ -36934,11 +36622,15 @@
         <v>-822.1732921499984</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36967,11 +36659,15 @@
         <v>-803.2699921499984</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37000,11 +36696,15 @@
         <v>-802.8017921499984</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37033,11 +36733,15 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37066,11 +36770,15 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37099,11 +36807,15 @@
         <v>-833.8597921499985</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37136,7 +36848,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37169,7 +36885,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37202,7 +36922,11 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37235,7 +36959,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37268,7 +36996,11 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37301,7 +37033,11 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37334,7 +37070,11 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37367,7 +37107,11 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37400,7 +37144,11 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37433,7 +37181,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37466,7 +37218,11 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
